--- a/Projects Docs/Requirements V1.1 .xlsx
+++ b/Projects Docs/Requirements V1.1 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="128">
   <si>
     <t>System Performance Specification</t>
   </si>
@@ -800,6 +800,15 @@
   </si>
   <si>
     <t>Addition of Use cases</t>
+  </si>
+  <si>
+    <t>Switching lanes</t>
+  </si>
+  <si>
+    <t>The system shall recognize lane switching, thereby continuing to detect proper lane line even after switching.</t>
+  </si>
+  <si>
+    <t>TE1004</t>
   </si>
 </sst>
 </file>
@@ -1172,51 +1181,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1231,6 +1195,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1538,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1550,11 +1559,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="26">
+      <c r="A1" s="32">
         <v>44154</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
@@ -1564,16 +1573,16 @@
       <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
@@ -1594,16 +1603,16 @@
       <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -1618,18 +1627,18 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
@@ -1644,10 +1653,10 @@
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1658,19 +1667,19 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="11"/>
@@ -1692,7 +1701,7 @@
       <c r="D10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="26">
         <v>44146</v>
       </c>
       <c r="F10" s="11"/>
@@ -1714,7 +1723,7 @@
       <c r="D11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="27">
         <v>44154</v>
       </c>
       <c r="F11" s="11"/>
@@ -1736,7 +1745,7 @@
       <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="28">
         <v>44166</v>
       </c>
       <c r="F12" s="11"/>
@@ -1758,7 +1767,7 @@
       <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="28">
         <v>44189</v>
       </c>
       <c r="F13" s="11"/>
@@ -1776,7 +1785,7 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="44"/>
+      <c r="E14" s="29"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -1792,7 +1801,7 @@
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="44"/>
+      <c r="E15" s="29"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1808,7 +1817,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="44"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -1824,7 +1833,7 @@
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="44"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -1840,7 +1849,7 @@
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
-      <c r="E18" s="44"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -1856,7 +1865,7 @@
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="44"/>
+      <c r="E19" s="29"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -1872,7 +1881,7 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="44"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -1906,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,48 +2111,48 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>34</v>
+      <c r="B6" s="18" t="s">
+        <v>125</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>37</v>
+        <v>109</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="10"/>
+        <v>127</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="8"/>
       <c r="K6" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>101</v>
+      <c r="B7" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>37</v>
@@ -2163,57 +2172,55 @@
       <c r="I7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>22</v>
+        <v>100</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="F8" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>77</v>
+        <v>37</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>110</v>
@@ -2228,25 +2235,27 @@
         <v>39</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="K9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>110</v>
@@ -2255,13 +2264,13 @@
         <v>33</v>
       </c>
       <c r="F10" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -2271,212 +2280,212 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F12" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>37</v>
+        <v>85</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>37</v>
+        <v>86</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F16" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="6">
-        <v>0</v>
+      <c r="I16" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>28</v>
@@ -2485,32 +2494,32 @@
         <v>5</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8"/>
       <c r="K17" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
       </c>
@@ -2521,46 +2530,79 @@
         <v>39</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="I18" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="K18" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>37</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2574,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2585,115 +2627,126 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="4" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="32" t="s">
+      <c r="E4" s="38"/>
+      <c r="F4" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="32" t="s">
+      <c r="E5" s="38"/>
+      <c r="F5" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="32"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="32" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="32"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" spans="4:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="33" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="4:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="40" t="s">
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="4:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="35" t="s">
+      <c r="E8" s="41"/>
+      <c r="F8" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="32"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="10" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="32" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="4:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="38"/>
+      <c r="F11" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="4:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="32" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" spans="4:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="33" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="4:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="35" t="s">
+      <c r="E14" s="41"/>
+      <c r="F14" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="G14" s="32"/>
+      <c r="G14" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="D14:E14"/>
@@ -2704,17 +2757,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Projects Docs/Requirements V1.1 .xlsx
+++ b/Projects Docs/Requirements V1.1 .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="130">
   <si>
     <t>System Performance Specification</t>
   </si>
@@ -78,9 +78,6 @@
     <t>% Maturity</t>
   </si>
   <si>
-    <t>Remark</t>
-  </si>
-  <si>
     <t>Domain</t>
   </si>
   <si>
@@ -459,15 +456,9 @@
     <t>REQ-208</t>
   </si>
   <si>
-    <t>Implemented various filtering techniques</t>
-  </si>
-  <si>
     <t>As of now Canny filter seems to be more effective</t>
   </si>
   <si>
-    <t>Accquired the necessary data sets. Beginning to work on training the model</t>
-  </si>
-  <si>
     <t>REQ-104</t>
   </si>
   <si>
@@ -578,9 +569,6 @@
   </si>
   <si>
     <t>Not a main requirement</t>
-  </si>
-  <si>
-    <t>Bill of materials has been made.</t>
   </si>
   <si>
     <r>
@@ -805,10 +793,40 @@
     <t>Switching lanes</t>
   </si>
   <si>
-    <t>The system shall recognize lane switching, thereby continuing to detect proper lane line even after switching.</t>
-  </si>
-  <si>
     <t>TE1004</t>
+  </si>
+  <si>
+    <t>Dhanush Lingeswaran, Vivek Subramonian and Sayli Deshmukh</t>
+  </si>
+  <si>
+    <t>Can detect signs based on colours and recognize them but frame rate a bit slow and choppy. Next step to seprate the signs based on shapes.</t>
+  </si>
+  <si>
+    <t>Remark/Status</t>
+  </si>
+  <si>
+    <t>Updation of Status in the requirements documents</t>
+  </si>
+  <si>
+    <t>Got a working model. Sucessfully detecting our objective which are lane lines.</t>
+  </si>
+  <si>
+    <t>Bill of materials has been made. Hadware is set up and running. Yet to start testing.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system shall recognize lane switching, thereby </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>continuing to detect proper lane line even after switching.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1110,7 +1128,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,32 +1233,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1547,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1616,7 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -1654,7 +1678,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="11"/>
@@ -1699,7 +1723,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="26">
         <v>44146</v>
@@ -1718,10 +1742,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="27">
         <v>44154</v>
@@ -1740,10 +1764,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="28">
         <v>44166</v>
@@ -1762,10 +1786,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="28">
         <v>44189</v>
@@ -1776,16 +1800,22 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+    <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="47">
         <v>5</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="48">
+        <v>44198</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -1918,7 +1948,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,7 +1977,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>14</v>
@@ -1965,645 +1995,645 @@
         <v>18</v>
       </c>
       <c r="J1" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I2" s="19">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6">
         <v>5</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6">
         <v>5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I4" s="20">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="6">
         <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I5" s="20">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6">
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I6" s="20">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J6" s="8"/>
       <c r="K6" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6">
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="F9" s="6">
         <v>5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I9" s="20">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="F10" s="6">
         <v>5</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0.5</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>45</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="F11" s="6">
         <v>3</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0.5</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6">
         <v>4</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="6">
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="6">
         <v>4</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I15" s="6">
         <v>0</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>59</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="6">
         <v>5</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" s="6">
         <v>0</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>63</v>
-      </c>
       <c r="C18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="6">
         <v>5</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I18" s="20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="6">
         <v>5</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" s="6">
         <v>0</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="6">
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2627,126 +2657,115 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
+      <c r="D2" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="4" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="4:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="45"/>
+    </row>
+    <row r="8" spans="4:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="43" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="10" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" spans="4:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="4:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="38" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="43"/>
-    </row>
-    <row r="6" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="38" t="s">
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="4:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="43" t="s">
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="4:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="F14" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="4:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="4:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="43"/>
-    </row>
-    <row r="10" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" spans="4:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="4:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" spans="4:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="4:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G14" s="43"/>
+      <c r="G14" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="D14:E14"/>
@@ -2757,6 +2776,17 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Projects Docs/Requirements V1.1 .xlsx
+++ b/Projects Docs/Requirements V1.1 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="168">
   <si>
     <t>System Performance Specification</t>
   </si>
@@ -306,8 +306,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>The system shall</t>
+    <t>REQ - 301</t>
+  </si>
+  <si>
+    <t>Modularity and portability</t>
+  </si>
+  <si>
+    <t>Hardware Requirement</t>
+  </si>
+  <si>
+    <r>
+      <t>The hardware system used for the detection process shall be</t>
     </r>
     <r>
       <rPr>
@@ -317,7 +326,49 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> ignore signs and signals during the night</t>
+      <t xml:space="preserve"> modular and portable  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>to fit in all major sizes of car.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ - 302</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>REQ - 303</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>REQ - 304</t>
+  </si>
+  <si>
+    <t>Capturing rate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The camera used in the system </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>shall capture signs regardless of speed of the car</t>
     </r>
     <r>
       <rPr>
@@ -330,17 +381,8 @@
     </r>
   </si>
   <si>
-    <t>REQ - 301</t>
-  </si>
-  <si>
-    <t>Modularity and portability</t>
-  </si>
-  <si>
-    <t>Hardware Requirement</t>
-  </si>
-  <si>
-    <r>
-      <t>The hardware system used for the detection process shall be</t>
+    <r>
+      <t xml:space="preserve">The system shall be powered by a </t>
     </r>
     <r>
       <rPr>
@@ -350,96 +392,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> modular and portable  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>to fit in all major sizes of car.</t>
-    </r>
-  </si>
-  <si>
-    <t>REQ - 302</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>REQ - 303</t>
-  </si>
-  <si>
-    <r>
-      <t>The camera used in the system shall capture at the rate of</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 24 frames per second</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>REQ - 304</t>
-  </si>
-  <si>
-    <t>Capturing rate</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The camera used in the system </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>shall capture signs regardless of speed of the car</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The system shall be powered by a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>separate battery.</t>
     </r>
   </si>
@@ -448,12 +400,6 @@
   </si>
   <si>
     <t>REQ-206</t>
-  </si>
-  <si>
-    <t>REQ - 207</t>
-  </si>
-  <si>
-    <t>REQ-208</t>
   </si>
   <si>
     <t>As of now Canny filter seems to be more effective</t>
@@ -778,9 +724,6 @@
     </r>
   </si>
   <si>
-    <t>UC01, UC02</t>
-  </si>
-  <si>
     <t>Marking the priority and functionality of all the requirements</t>
   </si>
   <si>
@@ -827,6 +770,330 @@
       </rPr>
       <t>continuing to detect proper lane line even after switching.</t>
     </r>
+  </si>
+  <si>
+    <t>UC03</t>
+  </si>
+  <si>
+    <t>UC04</t>
+  </si>
+  <si>
+    <t>UC05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> To detect signs and lane lines while driving in the highway.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> To detect signs and lane lines while driving on the road of a city.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> To detect signs and lane lines while driving on the road of a rural outskirts.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>UC06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> To detect signs and lane lines while driving during the day time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>UC02,  UC03, UC04, UC05, UC06</t>
+  </si>
+  <si>
+    <t>UC01, UC02,  UC03, UC04, UC05, UC06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> UC03, UC04, UC05, UC06</t>
+  </si>
+  <si>
+    <t>REQ-107</t>
+  </si>
+  <si>
+    <t>REQ-108</t>
+  </si>
+  <si>
+    <t>Region of Interest</t>
+  </si>
+  <si>
+    <t>The line detection system shall correctly identify and detect the Region Of Interest(ROI).</t>
+  </si>
+  <si>
+    <t>Correctly idetnifying the ROI which in this case the road.</t>
+  </si>
+  <si>
+    <r>
+      <t>The system shall</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> detect signs and lane lines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> even during the night provided sufficient lighting condiotions are provided.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> UC01,UC02, UC03, UC04, UC05, UC06</t>
+  </si>
+  <si>
+    <t>All team members.</t>
+  </si>
+  <si>
+    <t>T2007</t>
+  </si>
+  <si>
+    <r>
+      <t>The camera used in the system shall capture at the rate of</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 24 frames per second </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>provided the camera is properly mounted.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-109</t>
+  </si>
+  <si>
+    <t>Narrow and Wide lanes</t>
+  </si>
+  <si>
+    <r>
+      <t>The system shall work even while traversing in</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> both narrow and wide lanes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>TE1005</t>
+  </si>
+  <si>
+    <t>Detecting both narrow and wide lanes.</t>
+  </si>
+  <si>
+    <t>REQ-110</t>
+  </si>
+  <si>
+    <t>Detection in highways, city and rural roads.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system shall work in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>all types of roads</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>TE1006</t>
+  </si>
+  <si>
+    <t>Working well is all manner of roads.</t>
+  </si>
+  <si>
+    <t>REQ-207</t>
+  </si>
+  <si>
+    <t>REQ - 208</t>
+  </si>
+  <si>
+    <t>REQ-209</t>
+  </si>
+  <si>
+    <t>Multiple signs detection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shall detect </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mutiple traffic signs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on the road.</t>
+    </r>
+  </si>
+  <si>
+    <t>TE2004</t>
+  </si>
+  <si>
+    <t>UC07</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> To detect signs and lane lines after switching the lanes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>UC01, UC03, UC04, UC05, UC06, UC07</t>
+  </si>
+  <si>
+    <t>UC01,  UC03, UC04, UC05, UC06,  UC07</t>
+  </si>
+  <si>
+    <t>Addition of final requirements in the requirements documents.</t>
+  </si>
+  <si>
+    <t>Freezing of Requirements and use cases.</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1395,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1208,13 +1475,15 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1233,6 +1502,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1241,30 +1528,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1571,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1941,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="11"/>
@@ -1691,19 +1954,19 @@
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="11"/>
@@ -1742,7 +2005,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
@@ -1764,7 +2027,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>31</v>
@@ -1786,7 +2049,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>31</v>
@@ -1801,19 +2064,19 @@
       <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="47">
+      <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="31">
         <v>44198</v>
       </c>
       <c r="F14" s="11"/>
@@ -1822,101 +2085,75 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+    <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>6</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="29"/>
+      <c r="C15" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="27">
+        <v>44207</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>7</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="29"/>
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="31"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>8</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>9</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>10</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>11</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
@@ -1945,10 +2182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,7 +2214,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>14</v>
@@ -1995,7 +2232,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K1" s="25" t="s">
         <v>19</v>
@@ -2009,10 +2246,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -2024,13 +2261,13 @@
         <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I2" s="19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>22</v>
@@ -2044,10 +2281,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>26</v>
@@ -2059,30 +2296,30 @@
         <v>38</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>87</v>
+        <v>68</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>26</v>
@@ -2094,30 +2331,30 @@
         <v>38</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I4" s="20">
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>84</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>26</v>
@@ -2129,7 +2366,7 @@
         <v>38</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I5" s="20">
         <v>1</v>
@@ -2143,16 +2380,16 @@
     </row>
     <row r="6" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -2164,99 +2401,101 @@
         <v>38</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="I6" s="20">
         <v>1</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="K6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>33</v>
+        <v>92</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>116</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>36</v>
+        <v>165</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="10"/>
+        <v>117</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8"/>
       <c r="K7" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>36</v>
+        <v>165</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="F8" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>149</v>
+      </c>
+      <c r="I8" s="20">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>21</v>
+        <v>137</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="F9" s="6">
         <v>5</v>
@@ -2265,375 +2504,517 @@
         <v>38</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="I9" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>36</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="F10" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>36</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="F11" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="K11" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="F12" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0.7</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="K12" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="F13" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0.7</v>
       </c>
       <c r="J13" s="8"/>
       <c r="K13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>36</v>
+        <v>77</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0.7</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="F15" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0.7</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F16" s="6">
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>36</v>
+      <c r="I16" s="6">
+        <v>0</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F17" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="I17" s="20">
+        <v>0.7</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F18" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>128</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="8"/>
       <c r="K18" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F19" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="I19" s="20">
+        <v>1</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="F20" s="6">
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>36</v>
+        <v>144</v>
+      </c>
+      <c r="I20" s="20">
+        <v>0.7</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>91</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="6">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="6">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2644,10 +3025,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:G14"/>
+  <dimension ref="D2:V14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,118 +3037,357 @@
     <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="40"/>
-    </row>
-    <row r="4" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="41" t="s">
+    <row r="2" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="4" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="I4" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="39"/>
+      <c r="N4" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="38"/>
+      <c r="P4" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="39"/>
+      <c r="S4" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="38"/>
+      <c r="U4" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="V4" s="39"/>
+    </row>
+    <row r="5" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="I5" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="38"/>
+      <c r="K5" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="39"/>
+      <c r="N5" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" s="39"/>
+      <c r="S5" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" s="38"/>
+      <c r="U5" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="V5" s="39"/>
+    </row>
+    <row r="6" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="39"/>
+      <c r="I6" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="N6" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q6" s="39"/>
+      <c r="S6" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="V6" s="39"/>
+    </row>
+    <row r="7" spans="4:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="I7" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="N7" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="41"/>
+      <c r="S7" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="T7" s="38"/>
+      <c r="U7" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="V7" s="41"/>
+    </row>
+    <row r="8" spans="4:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="39"/>
+      <c r="I8" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="N8" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" s="42"/>
+      <c r="P8" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="39"/>
+      <c r="S8" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T8" s="42"/>
+      <c r="U8" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="V8" s="39"/>
+    </row>
+    <row r="10" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="I10" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="N10" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="39"/>
+    </row>
+    <row r="11" spans="4:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="39"/>
+      <c r="I11" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="39"/>
+      <c r="N11" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q11" s="39"/>
+    </row>
+    <row r="12" spans="4:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="41" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="41" t="s">
+      <c r="G12" s="39"/>
+      <c r="I12" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="N12" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="O12" s="38"/>
+      <c r="P12" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="39"/>
+    </row>
+    <row r="13" spans="4:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42" t="s">
+      <c r="G13" s="41"/>
+      <c r="I13" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="41"/>
+      <c r="N13" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" s="38"/>
+      <c r="P13" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q13" s="41"/>
+    </row>
+    <row r="14" spans="4:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="4:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="4:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="10" spans="4:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="41" t="s">
+      <c r="G14" s="39"/>
+      <c r="I14" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="4:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" spans="4:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="G12" s="42"/>
-    </row>
-    <row r="13" spans="4:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="4:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="39"/>
+      <c r="N14" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="42"/>
+      <c r="P14" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q14" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
+  <mergeCells count="71">
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="D10:E10"/>
@@ -2776,17 +3396,28 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Projects Docs/Requirements V1.1 .xlsx
+++ b/Projects Docs/Requirements V1.1 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="183">
   <si>
     <t>System Performance Specification</t>
   </si>
@@ -126,30 +126,6 @@
     <t xml:space="preserve">Straight line </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The line detection system in the car shall </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ignore curved lane</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> line on either side of the road.</t>
-    </r>
-  </si>
-  <si>
     <t>__</t>
   </si>
   <si>
@@ -1094,6 +1070,117 @@
   </si>
   <si>
     <t>Freezing of Requirements and use cases.</t>
+  </si>
+  <si>
+    <r>
+      <t>The line detection system in the car shall detect</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> curved lane</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> line on either side of the road.</t>
+    </r>
+  </si>
+  <si>
+    <t>TE1007</t>
+  </si>
+  <si>
+    <t>Able to detect curved lane lines to an extent.</t>
+  </si>
+  <si>
+    <t>REQ-111</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The line detection system in the car shall </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>detect lane lines in all weather conditions.</t>
+    </r>
+  </si>
+  <si>
+    <t>Detections under the various weather conditions</t>
+  </si>
+  <si>
+    <t>UC08</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> To detect signs and lane lines in all weather conditions.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TE1008</t>
+  </si>
+  <si>
+    <t>Able to detect lane lines in foggy/snowy/rainy conditions to an extent.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The line detection system in the car shall </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>detect traffic signs in all weather conditions.</t>
+    </r>
+  </si>
+  <si>
+    <t>REQ-210</t>
+  </si>
+  <si>
+    <t>Able to detect traffic signs in foggy/snowy/rainy conditions to an extent.</t>
+  </si>
+  <si>
+    <t>TE2008</t>
+  </si>
+  <si>
+    <t>UC02,  UC03, UC04, UC05, UC06,  UC07, UC08</t>
+  </si>
+  <si>
+    <t>UC01,  UC03, UC04, UC05, UC06,  UC07, UC08</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1482,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1424,7 +1511,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1502,12 +1588,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1515,9 +1604,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1834,7 +1920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1846,134 +1932,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="32">
+      <c r="A1" s="31">
         <v>44154</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="A8" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
@@ -1988,14 +2074,14 @@
       <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>44146</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -2005,19 +2091,19 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <v>44154</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -2027,19 +2113,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>44166</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -2049,19 +2135,19 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="27">
         <v>44189</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -2071,19 +2157,19 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <v>44198</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -2093,19 +2179,19 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <v>44207</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
@@ -2115,57 +2201,57 @@
         <v>10</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2182,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,37 +2290,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2242,14 +2328,14 @@
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -2258,16 +2344,16 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="19">
+        <v>71</v>
+      </c>
+      <c r="I2" s="18">
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>22</v>
@@ -2277,14 +2363,14 @@
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>26</v>
@@ -2293,16 +2379,16 @@
         <v>5</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>22</v>
@@ -2310,16 +2396,16 @@
     </row>
     <row r="4" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>26</v>
@@ -2328,16 +2414,16 @@
         <v>5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="20">
+        <v>72</v>
+      </c>
+      <c r="I4" s="19">
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>22</v>
@@ -2345,16 +2431,16 @@
     </row>
     <row r="5" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>26</v>
@@ -2363,16 +2449,16 @@
         <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="20">
+        <v>73</v>
+      </c>
+      <c r="I5" s="19">
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>22</v>
@@ -2380,16 +2466,16 @@
     </row>
     <row r="6" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="18" t="s">
         <v>81</v>
       </c>
+      <c r="B6" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="C6" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -2398,16 +2484,16 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="20">
+        <v>73</v>
+      </c>
+      <c r="I6" s="19">
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>22</v>
@@ -2415,16 +2501,16 @@
     </row>
     <row r="7" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>116</v>
+        <v>91</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>26</v>
@@ -2433,12 +2519,12 @@
         <v>5</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="20">
+        <v>116</v>
+      </c>
+      <c r="I7" s="19">
         <v>1</v>
       </c>
       <c r="J7" s="8"/>
@@ -2448,16 +2534,16 @@
     </row>
     <row r="8" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>26</v>
@@ -2466,16 +2552,16 @@
         <v>5</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="19">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="I8" s="20">
-        <v>1</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>22</v>
@@ -2483,16 +2569,16 @@
     </row>
     <row r="9" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -2501,16 +2587,16 @@
         <v>5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="I9" s="20">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>22</v>
@@ -2518,166 +2604,170 @@
     </row>
     <row r="10" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>36</v>
+        <v>164</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="K10" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="6">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="6">
         <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="20">
+        <v>74</v>
+      </c>
+      <c r="I13" s="19">
         <v>0.7</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="K13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F14" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="20">
+        <v>75</v>
+      </c>
+      <c r="I14" s="19">
         <v>0.7</v>
       </c>
       <c r="J14" s="8"/>
@@ -2687,30 +2777,30 @@
     </row>
     <row r="15" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>159</v>
+        <v>42</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" s="20">
+        <v>76</v>
+      </c>
+      <c r="I15" s="19">
         <v>0.7</v>
       </c>
       <c r="J15" s="8"/>
@@ -2718,251 +2808,251 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="F16" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
+        <v>160</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0.7</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F17" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="20">
-        <v>0.7</v>
+        <v>35</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F18" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>36</v>
+        <v>77</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0.7</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>52</v>
+        <v>155</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F19" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="20">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="F20" s="6">
+        <v>4</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="19">
         <v>1</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I20" s="20">
-        <v>0.7</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>57</v>
+        <v>157</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="F21" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
+        <v>143</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0.7</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="6">
-        <v>5</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="20">
-        <v>0.2</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>27</v>
@@ -2971,50 +3061,118 @@
         <v>5</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I23" s="6">
         <v>0</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9" t="s">
-        <v>87</v>
+      <c r="H26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3027,8 +3185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:V14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,364 +3196,371 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="46"/>
+      <c r="D2" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="4" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="I4" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="39"/>
+      <c r="K4" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="38"/>
+      <c r="N4" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" s="39"/>
+      <c r="P4" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="38"/>
+      <c r="S4" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="39"/>
+      <c r="U4" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="V4" s="38"/>
+    </row>
+    <row r="5" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="G4" s="39"/>
-      <c r="I4" s="38" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="I5" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="39"/>
-      <c r="N4" s="38" t="s">
+      <c r="J5" s="39"/>
+      <c r="K5" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="N5" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="39"/>
-      <c r="S4" s="38" t="s">
+      <c r="O5" s="39"/>
+      <c r="P5" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" s="38"/>
+      <c r="S5" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="T4" s="38"/>
-      <c r="U4" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="V4" s="39"/>
-    </row>
-    <row r="5" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="38" t="s">
+      <c r="T5" s="39"/>
+      <c r="U5" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="38"/>
+    </row>
+    <row r="6" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="39"/>
-      <c r="I5" s="38" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="I6" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="39"/>
-      <c r="N5" s="38" t="s">
+      <c r="J6" s="39"/>
+      <c r="K6" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="38"/>
+      <c r="N6" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q5" s="39"/>
-      <c r="S5" s="38" t="s">
+      <c r="O6" s="39"/>
+      <c r="P6" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="38"/>
+      <c r="S6" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="T5" s="38"/>
-      <c r="U5" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="V5" s="39"/>
-    </row>
-    <row r="6" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="38" t="s">
+      <c r="T6" s="39"/>
+      <c r="U6" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="V6" s="38"/>
+    </row>
+    <row r="7" spans="4:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="I6" s="38" t="s">
+      <c r="G7" s="41"/>
+      <c r="I7" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39" t="s">
+      <c r="J7" s="39"/>
+      <c r="K7" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="N6" s="38" t="s">
+      <c r="L7" s="41"/>
+      <c r="N7" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="39" t="s">
+      <c r="O7" s="39"/>
+      <c r="P7" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="Q6" s="39"/>
-      <c r="S6" s="38" t="s">
+      <c r="Q7" s="41"/>
+      <c r="S7" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="T6" s="38"/>
-      <c r="U6" s="39" t="s">
+      <c r="T7" s="39"/>
+      <c r="U7" s="40" t="s">
         <v>108</v>
-      </c>
-      <c r="V6" s="39"/>
-    </row>
-    <row r="7" spans="4:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="I7" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="41"/>
-      <c r="N7" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q7" s="41"/>
-      <c r="S7" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="T7" s="38"/>
-      <c r="U7" s="40" t="s">
-        <v>109</v>
       </c>
       <c r="V7" s="41"/>
     </row>
     <row r="8" spans="4:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="38"/>
+      <c r="I8" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="N8" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" s="42"/>
+      <c r="P8" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8" s="38"/>
+      <c r="S8" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" s="42"/>
+      <c r="U8" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="V8" s="38"/>
+    </row>
+    <row r="10" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="I10" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="N10" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" s="39"/>
+      <c r="P10" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="38"/>
+      <c r="S10" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" s="39"/>
+      <c r="U10" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="V10" s="38"/>
+    </row>
+    <row r="11" spans="4:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="I11" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="N11" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="39"/>
+      <c r="P11" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q11" s="38"/>
+      <c r="S11" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="39"/>
+      <c r="U11" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="V11" s="38"/>
+    </row>
+    <row r="12" spans="4:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="I8" s="42" t="s">
+      <c r="G12" s="38"/>
+      <c r="I12" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" s="39"/>
-      <c r="N8" s="42" t="s">
+      <c r="L12" s="38"/>
+      <c r="N12" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="39"/>
+      <c r="P12" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q8" s="39"/>
-      <c r="S8" s="42" t="s">
+      <c r="Q12" s="38"/>
+      <c r="S12" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="T12" s="39"/>
+      <c r="U12" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="T8" s="42"/>
-      <c r="U8" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="V8" s="39"/>
-    </row>
-    <row r="10" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="I10" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="L10" s="39"/>
-      <c r="N10" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q10" s="39"/>
-    </row>
-    <row r="11" spans="4:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="39"/>
-      <c r="I11" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="39"/>
-      <c r="N11" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q11" s="39"/>
-    </row>
-    <row r="12" spans="4:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="38" t="s">
+      <c r="V12" s="38"/>
+    </row>
+    <row r="13" spans="4:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39" t="s">
+      <c r="E13" s="39"/>
+      <c r="F13" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="I12" s="38" t="s">
+      <c r="G13" s="41"/>
+      <c r="I13" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39" t="s">
+      <c r="J13" s="39"/>
+      <c r="K13" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="N12" s="38" t="s">
+      <c r="L13" s="41"/>
+      <c r="N13" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="39" t="s">
+      <c r="O13" s="39"/>
+      <c r="P13" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="Q12" s="39"/>
-    </row>
-    <row r="13" spans="4:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="I13" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="41"/>
-      <c r="N13" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="40" t="s">
-        <v>109</v>
-      </c>
       <c r="Q13" s="41"/>
+      <c r="S13" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="T13" s="39"/>
+      <c r="U13" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" s="41"/>
     </row>
     <row r="14" spans="4:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="42"/>
-      <c r="F14" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="39"/>
+      <c r="F14" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="38"/>
       <c r="I14" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J14" s="42"/>
-      <c r="K14" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" s="39"/>
+      <c r="K14" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="38"/>
       <c r="N14" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O14" s="42"/>
-      <c r="P14" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q14" s="39"/>
+      <c r="P14" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q14" s="38"/>
+      <c r="S14" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="T14" s="42"/>
+      <c r="U14" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="V14" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
+  <mergeCells count="81">
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="S8:T8"/>
@@ -3412,12 +3577,55 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Projects Docs/Requirements V1.1 .xlsx
+++ b/Projects Docs/Requirements V1.1 .xlsx
@@ -165,9 +165,6 @@
     <t>REQ-202</t>
   </si>
   <si>
-    <t>Major signs</t>
-  </si>
-  <si>
     <t>REQ-203</t>
   </si>
   <si>
@@ -1181,6 +1178,9 @@
   </si>
   <si>
     <t>UC01,  UC03, UC04, UC05, UC06,  UC07, UC08</t>
+  </si>
+  <si>
+    <t>Mandatory Signs</t>
   </si>
 </sst>
 </file>
@@ -1588,23 +1588,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="10"/>
@@ -2091,7 +2091,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
@@ -2113,7 +2113,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>31</v>
@@ -2135,7 +2135,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>31</v>
@@ -2157,7 +2157,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>31</v>
@@ -2179,7 +2179,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>31</v>
@@ -2201,7 +2201,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>31</v>
@@ -2270,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2300,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>14</v>
@@ -2318,7 +2318,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>19</v>
@@ -2332,10 +2332,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -2347,13 +2347,13 @@
         <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I2" s="18">
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>22</v>
@@ -2367,10 +2367,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>26</v>
@@ -2382,13 +2382,13 @@
         <v>37</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>22</v>
@@ -2396,16 +2396,16 @@
     </row>
     <row r="4" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>26</v>
@@ -2417,13 +2417,13 @@
         <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I4" s="19">
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>22</v>
@@ -2431,16 +2431,16 @@
     </row>
     <row r="5" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>26</v>
@@ -2452,13 +2452,13 @@
         <v>37</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="19">
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>22</v>
@@ -2466,16 +2466,16 @@
     </row>
     <row r="6" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -2487,13 +2487,13 @@
         <v>37</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="19">
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>22</v>
@@ -2501,16 +2501,16 @@
     </row>
     <row r="7" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>26</v>
@@ -2522,7 +2522,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" s="19">
         <v>1</v>
@@ -2534,16 +2534,16 @@
     </row>
     <row r="8" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>26</v>
@@ -2555,13 +2555,13 @@
         <v>37</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" s="19">
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>22</v>
@@ -2569,16 +2569,16 @@
     </row>
     <row r="9" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -2590,13 +2590,13 @@
         <v>37</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I9" s="19">
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>22</v>
@@ -2604,16 +2604,16 @@
     </row>
     <row r="10" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>26</v>
@@ -2625,27 +2625,27 @@
         <v>37</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I10" s="19">
         <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>35</v>
@@ -2666,24 +2666,24 @@
         <v>35</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -2695,16 +2695,16 @@
         <v>37</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,10 +2718,10 @@
         <v>39</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" s="6">
         <v>5</v>
@@ -2730,13 +2730,13 @@
         <v>37</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="19">
         <v>0.7</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>22</v>
@@ -2747,16 +2747,16 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="6">
         <v>5</v>
@@ -2765,7 +2765,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I14" s="19">
         <v>0.7</v>
@@ -2777,19 +2777,19 @@
     </row>
     <row r="15" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="6">
         <v>3</v>
@@ -2798,7 +2798,7 @@
         <v>37</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" s="19">
         <v>0.7</v>
@@ -2810,19 +2810,19 @@
     </row>
     <row r="16" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F16" s="6">
         <v>5</v>
@@ -2831,7 +2831,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="19">
         <v>0.7</v>
@@ -2843,13 +2843,13 @@
     </row>
     <row r="17" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>35</v>
@@ -2871,21 +2871,21 @@
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>32</v>
@@ -2897,7 +2897,7 @@
         <v>37</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="19">
         <v>0.7</v>
@@ -2909,13 +2909,13 @@
     </row>
     <row r="19" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>35</v>
@@ -2937,21 +2937,21 @@
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -2963,7 +2963,7 @@
         <v>37</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I20" s="19">
         <v>1</v>
@@ -2975,19 +2975,19 @@
     </row>
     <row r="21" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="F21" s="6">
         <v>1</v>
@@ -2996,7 +2996,7 @@
         <v>37</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I21" s="19">
         <v>0.7</v>
@@ -3008,19 +3008,19 @@
     </row>
     <row r="22" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
@@ -3029,27 +3029,27 @@
         <v>37</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>56</v>
-      </c>
       <c r="C23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>35</v>
@@ -3061,7 +3061,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>35</v>
@@ -3071,21 +3071,21 @@
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>60</v>
-      </c>
       <c r="C24" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>27</v>
@@ -3103,21 +3103,21 @@
         <v>0.2</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>62</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>35</v>
@@ -3139,18 +3139,18 @@
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="C26" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>35</v>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3197,370 +3197,403 @@
   <sheetData>
     <row r="2" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="45"/>
     </row>
     <row r="4" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="37"/>
+      <c r="F4" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="I4" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="42"/>
+      <c r="N4" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="O4" s="37"/>
+      <c r="P4" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="42"/>
+      <c r="S4" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="T4" s="37"/>
+      <c r="U4" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="V4" s="42"/>
+    </row>
+    <row r="5" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="38" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="I5" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="42"/>
+      <c r="N5" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="37"/>
+      <c r="P5" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q5" s="42"/>
+      <c r="S5" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="37"/>
+      <c r="U5" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="V5" s="42"/>
+    </row>
+    <row r="6" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="I6" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="37"/>
+      <c r="K6" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="42"/>
+      <c r="N6" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="37"/>
+      <c r="P6" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q6" s="42"/>
+      <c r="S6" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="T6" s="37"/>
+      <c r="U6" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="V6" s="42"/>
+    </row>
+    <row r="7" spans="4:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="39"/>
+      <c r="I7" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="N7" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="39"/>
+      <c r="S7" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="T7" s="37"/>
+      <c r="U7" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="V7" s="39"/>
+    </row>
+    <row r="8" spans="4:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="I8" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="42"/>
+      <c r="N8" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" s="40"/>
+      <c r="P8" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="42"/>
+      <c r="S8" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="T8" s="40"/>
+      <c r="U8" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="V8" s="42"/>
+    </row>
+    <row r="10" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="I4" s="39" t="s">
+      <c r="G10" s="42"/>
+      <c r="I10" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="37"/>
+      <c r="K10" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="N10" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="37"/>
+      <c r="P10" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q10" s="42"/>
+      <c r="S10" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="37"/>
+      <c r="U10" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="V10" s="42"/>
+    </row>
+    <row r="11" spans="4:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="39"/>
-      <c r="K4" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" s="38"/>
-      <c r="N4" s="39" t="s">
+      <c r="E11" s="37"/>
+      <c r="F11" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="I11" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q4" s="38"/>
-      <c r="S4" s="39" t="s">
+      <c r="J11" s="37"/>
+      <c r="K11" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" s="42"/>
+      <c r="N11" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="T4" s="39"/>
-      <c r="U4" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="V4" s="38"/>
-    </row>
-    <row r="5" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="39" t="s">
+      <c r="O11" s="37"/>
+      <c r="P11" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q11" s="42"/>
+      <c r="S11" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="T11" s="37"/>
+      <c r="U11" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="V11" s="42"/>
+    </row>
+    <row r="12" spans="4:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="38" t="s">
+      <c r="E12" s="37"/>
+      <c r="F12" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="I12" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="37"/>
+      <c r="K12" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="N12" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="37"/>
+      <c r="P12" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q12" s="42"/>
+      <c r="S12" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="T12" s="37"/>
+      <c r="U12" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="V12" s="42"/>
+    </row>
+    <row r="13" spans="4:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="39"/>
+      <c r="I13" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="39"/>
+      <c r="N13" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" s="37"/>
+      <c r="P13" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="39"/>
+      <c r="S13" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="T13" s="37"/>
+      <c r="U13" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="V13" s="39"/>
+    </row>
+    <row r="14" spans="4:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="38"/>
-      <c r="I5" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="38"/>
-      <c r="N5" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="38"/>
-      <c r="S5" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="T5" s="39"/>
-      <c r="U5" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="V5" s="38"/>
-    </row>
-    <row r="6" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="I6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="38"/>
-      <c r="N6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q6" s="38"/>
-      <c r="S6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="T6" s="39"/>
-      <c r="U6" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="V6" s="38"/>
-    </row>
-    <row r="7" spans="4:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="39" t="s">
+      <c r="G14" s="42"/>
+      <c r="I14" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="I7" s="39" t="s">
+      <c r="J14" s="40"/>
+      <c r="K14" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" s="42"/>
+      <c r="N14" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="L7" s="41"/>
-      <c r="N7" s="39" t="s">
+      <c r="O14" s="40"/>
+      <c r="P14" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q14" s="42"/>
+      <c r="S14" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="41"/>
-      <c r="S7" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="V7" s="41"/>
-    </row>
-    <row r="8" spans="4:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="38"/>
-      <c r="I8" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="N8" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q8" s="38"/>
-      <c r="S8" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="T8" s="42"/>
-      <c r="U8" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="V8" s="38"/>
-    </row>
-    <row r="10" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="I10" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="N10" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q10" s="38"/>
-      <c r="S10" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="T10" s="39"/>
-      <c r="U10" s="38" t="s">
+      <c r="T14" s="40"/>
+      <c r="U14" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="V10" s="38"/>
-    </row>
-    <row r="11" spans="4:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="38"/>
-      <c r="I11" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="J11" s="39"/>
-      <c r="K11" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="38"/>
-      <c r="N11" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q11" s="38"/>
-      <c r="S11" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="T11" s="39"/>
-      <c r="U11" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="V11" s="38"/>
-    </row>
-    <row r="12" spans="4:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="I12" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="N12" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q12" s="38"/>
-      <c r="S12" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="T12" s="39"/>
-      <c r="U12" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="V12" s="38"/>
-    </row>
-    <row r="13" spans="4:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="I13" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="L13" s="41"/>
-      <c r="N13" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q13" s="41"/>
-      <c r="S13" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="T13" s="39"/>
-      <c r="U13" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="V13" s="41"/>
-    </row>
-    <row r="14" spans="4:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="I14" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="38"/>
-      <c r="N14" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="O14" s="42"/>
-      <c r="P14" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q14" s="38"/>
-      <c r="S14" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="T14" s="42"/>
-      <c r="U14" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="V14" s="38"/>
+      <c r="V14" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="S8:T8"/>
@@ -3577,55 +3610,22 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Projects Docs/Requirements V1.1 .xlsx
+++ b/Projects Docs/Requirements V1.1 .xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="192">
   <si>
     <t>System Performance Specification</t>
   </si>
@@ -381,28 +381,7 @@
     <t>REQ-104</t>
   </si>
   <si>
-    <t>TE1001</t>
-  </si>
-  <si>
-    <t>TE1002</t>
-  </si>
-  <si>
     <t>TE1003</t>
-  </si>
-  <si>
-    <t>TE2001</t>
-  </si>
-  <si>
-    <t>TE2002</t>
-  </si>
-  <si>
-    <t>TE2003</t>
-  </si>
-  <si>
-    <t>TE2005</t>
-  </si>
-  <si>
-    <t>TE2006</t>
   </si>
   <si>
     <r>
@@ -709,9 +688,6 @@
     <t>Switching lanes</t>
   </si>
   <si>
-    <t>TE1004</t>
-  </si>
-  <si>
     <t>Dhanush Lingeswaran, Vivek Subramonian and Sayli Deshmukh</t>
   </si>
   <si>
@@ -725,9 +701,6 @@
   </si>
   <si>
     <t>Got a working model. Sucessfully detecting our objective which are lane lines.</t>
-  </si>
-  <si>
-    <t>Bill of materials has been made. Hadware is set up and running. Yet to start testing.</t>
   </si>
   <si>
     <r>
@@ -859,9 +832,6 @@
     <t>Region of Interest</t>
   </si>
   <si>
-    <t>The line detection system shall correctly identify and detect the Region Of Interest(ROI).</t>
-  </si>
-  <si>
     <t>Correctly idetnifying the ROI which in this case the road.</t>
   </si>
   <si>
@@ -895,9 +865,6 @@
     <t>All team members.</t>
   </si>
   <si>
-    <t>T2007</t>
-  </si>
-  <si>
     <r>
       <t>The camera used in the system shall capture at the rate of</t>
     </r>
@@ -952,9 +919,6 @@
     </r>
   </si>
   <si>
-    <t>TE1005</t>
-  </si>
-  <si>
     <t>Detecting both narrow and wide lanes.</t>
   </si>
   <si>
@@ -988,9 +952,6 @@
     </r>
   </si>
   <si>
-    <t>TE1006</t>
-  </si>
-  <si>
     <t>Working well is all manner of roads.</t>
   </si>
   <si>
@@ -1028,9 +989,6 @@
       </rPr>
       <t xml:space="preserve"> on the road.</t>
     </r>
-  </si>
-  <si>
-    <t>TE2004</t>
   </si>
   <si>
     <t>UC07</t>
@@ -1093,9 +1051,6 @@
     </r>
   </si>
   <si>
-    <t>TE1007</t>
-  </si>
-  <si>
     <t>Able to detect curved lane lines to an extent.</t>
   </si>
   <si>
@@ -1144,9 +1099,6 @@
     </r>
   </si>
   <si>
-    <t>TE1008</t>
-  </si>
-  <si>
     <t>Able to detect lane lines in foggy/snowy/rainy conditions to an extent.</t>
   </si>
   <si>
@@ -1171,9 +1123,6 @@
     <t>Able to detect traffic signs in foggy/snowy/rainy conditions to an extent.</t>
   </si>
   <si>
-    <t>TE2008</t>
-  </si>
-  <si>
     <t>UC02,  UC03, UC04, UC05, UC06,  UC07, UC08</t>
   </si>
   <si>
@@ -1181,6 +1130,117 @@
   </si>
   <si>
     <t>Mandatory Signs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The line detection system shall correctly identify and detect the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Region Of Interest(ROI).</t>
+    </r>
+  </si>
+  <si>
+    <t>TE1009</t>
+  </si>
+  <si>
+    <t>TE2002, TE2004</t>
+  </si>
+  <si>
+    <t>TE1006, TE2006</t>
+  </si>
+  <si>
+    <t>TE1001, TE1002, TE1013</t>
+  </si>
+  <si>
+    <t>TE1002, TE1014</t>
+  </si>
+  <si>
+    <t>TE1003, TE1004, TE1015</t>
+  </si>
+  <si>
+    <t>TE1005, TE1017</t>
+  </si>
+  <si>
+    <t>TE1018</t>
+  </si>
+  <si>
+    <t>TE1008, TE1016, TE1019</t>
+  </si>
+  <si>
+    <t>T2007, TE1020</t>
+  </si>
+  <si>
+    <t>TE2008, TE1021</t>
+  </si>
+  <si>
+    <t>TE1010, TE1022</t>
+  </si>
+  <si>
+    <t>TE1010, TE1023</t>
+  </si>
+  <si>
+    <t>TE1012, TE1024</t>
+  </si>
+  <si>
+    <t>TE2001, TE2007</t>
+  </si>
+  <si>
+    <t>TE2003, TE2008</t>
+  </si>
+  <si>
+    <t>TE2009</t>
+  </si>
+  <si>
+    <t>TE2005, TE2010</t>
+  </si>
+  <si>
+    <t>TE2005, TE2011</t>
+  </si>
+  <si>
+    <t>REQ-211</t>
+  </si>
+  <si>
+    <t>Detection of damaged or faded sign boards</t>
+  </si>
+  <si>
+    <r>
+      <t>The line detection system in the car shall</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> detect damaged or faded sign boards to an extent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>TE2012</t>
+  </si>
+  <si>
+    <t>Can extract the colour but not able to classify accurately.</t>
+  </si>
+  <si>
+    <t>Bill of materials has been made. Hadware is set up and running.</t>
   </si>
 </sst>
 </file>
@@ -1588,6 +1648,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1599,12 +1665,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2027,7 +2087,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="10"/>
@@ -2091,7 +2151,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>31</v>
@@ -2113,7 +2173,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>31</v>
@@ -2135,7 +2195,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>31</v>
@@ -2157,7 +2217,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>31</v>
@@ -2179,7 +2239,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>31</v>
@@ -2201,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>31</v>
@@ -2268,10 +2328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,7 +2360,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>14</v>
@@ -2318,7 +2378,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>19</v>
@@ -2332,10 +2392,10 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>26</v>
@@ -2347,13 +2407,13 @@
         <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="I2" s="18">
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>22</v>
@@ -2367,10 +2427,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>26</v>
@@ -2382,7 +2442,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
@@ -2399,13 +2459,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>26</v>
@@ -2417,13 +2477,13 @@
         <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="I4" s="19">
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>22</v>
@@ -2434,13 +2494,13 @@
         <v>69</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>26</v>
@@ -2451,14 +2511,14 @@
       <c r="G5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>72</v>
+      <c r="H5" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="I5" s="19">
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>22</v>
@@ -2466,16 +2526,16 @@
     </row>
     <row r="6" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -2487,13 +2547,13 @@
         <v>37</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I6" s="19">
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>22</v>
@@ -2501,16 +2561,16 @@
     </row>
     <row r="7" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>26</v>
@@ -2522,7 +2582,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="I7" s="19">
         <v>1</v>
@@ -2534,16 +2594,16 @@
     </row>
     <row r="8" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>145</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>26</v>
@@ -2555,13 +2615,13 @@
         <v>37</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="I8" s="19">
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>22</v>
@@ -2569,16 +2629,16 @@
     </row>
     <row r="9" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -2590,13 +2650,13 @@
         <v>37</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="I9" s="19">
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>22</v>
@@ -2604,16 +2664,16 @@
     </row>
     <row r="10" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>26</v>
@@ -2625,27 +2685,27 @@
         <v>37</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="I10" s="19">
         <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>35</v>
@@ -2660,30 +2720,30 @@
         <v>37</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -2695,16 +2755,16 @@
         <v>37</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2718,10 +2778,10 @@
         <v>39</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F13" s="6">
         <v>5</v>
@@ -2730,13 +2790,13 @@
         <v>37</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="I13" s="19">
         <v>0.7</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>22</v>
@@ -2747,16 +2807,16 @@
         <v>40</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F14" s="6">
         <v>5</v>
@@ -2765,7 +2825,7 @@
         <v>37</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="I14" s="19">
         <v>0.7</v>
@@ -2783,13 +2843,13 @@
         <v>42</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F15" s="6">
         <v>3</v>
@@ -2798,7 +2858,7 @@
         <v>37</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="I15" s="19">
         <v>0.7</v>
@@ -2813,16 +2873,16 @@
         <v>43</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F16" s="6">
         <v>5</v>
@@ -2831,7 +2891,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="I16" s="19">
         <v>0.7</v>
@@ -2864,14 +2924,14 @@
         <v>37</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="I17" s="6">
         <v>0</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -2885,7 +2945,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>32</v>
@@ -2897,7 +2957,7 @@
         <v>37</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="I18" s="19">
         <v>0.7</v>
@@ -2909,7 +2969,7 @@
     </row>
     <row r="19" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>48</v>
@@ -2930,19 +2990,19 @@
         <v>35</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>50</v>
@@ -2951,7 +3011,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>32</v>
@@ -2962,8 +3022,8 @@
       <c r="G20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>77</v>
+      <c r="H20" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="I20" s="19">
         <v>1</v>
@@ -2975,19 +3035,19 @@
     </row>
     <row r="21" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F21" s="6">
         <v>1</v>
@@ -2996,7 +3056,7 @@
         <v>37</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="I21" s="19">
         <v>0.7</v>
@@ -3008,19 +3068,19 @@
     </row>
     <row r="22" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
@@ -3029,63 +3089,65 @@
         <v>37</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B24" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="6">
-        <v>5</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>27</v>
@@ -3094,33 +3156,31 @@
         <v>5</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="I24" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="J24" s="8"/>
       <c r="K24" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>27</v>
@@ -3132,25 +3192,27 @@
         <v>37</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>191</v>
+      </c>
       <c r="K25" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>35</v>
@@ -3159,20 +3221,53 @@
         <v>27</v>
       </c>
       <c r="F26" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>35</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="9" t="s">
-        <v>85</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3197,403 +3292,370 @@
   <sheetData>
     <row r="2" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="43" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="45"/>
     </row>
     <row r="4" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="I4" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="39"/>
+      <c r="K4" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="38"/>
+      <c r="N4" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="39"/>
+      <c r="P4" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="38"/>
+      <c r="S4" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="39"/>
+      <c r="U4" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="V4" s="38"/>
+    </row>
+    <row r="5" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="I5" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="39"/>
+      <c r="K5" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="38"/>
+      <c r="N5" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="39"/>
+      <c r="P5" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="38"/>
+      <c r="S5" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="T5" s="39"/>
+      <c r="U5" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="V5" s="38"/>
+    </row>
+    <row r="6" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="I6" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="39"/>
+      <c r="K6" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="38"/>
+      <c r="N6" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="39"/>
+      <c r="P6" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q6" s="38"/>
+      <c r="S6" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="T6" s="39"/>
+      <c r="U6" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="V6" s="38"/>
+    </row>
+    <row r="7" spans="4:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="I7" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="41"/>
+      <c r="N7" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="41"/>
+      <c r="S7" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="V7" s="41"/>
+    </row>
+    <row r="8" spans="4:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="42" t="s">
+      <c r="G8" s="38"/>
+      <c r="I8" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="K8" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="N8" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="42"/>
+      <c r="P8" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="38"/>
+      <c r="S8" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" s="42"/>
+      <c r="U8" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="V8" s="38"/>
+    </row>
+    <row r="10" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D10" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="I10" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="39"/>
+      <c r="K10" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="N10" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="39"/>
+      <c r="P10" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q10" s="38"/>
+      <c r="S10" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" s="39"/>
+      <c r="U10" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="V10" s="38"/>
+    </row>
+    <row r="11" spans="4:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="38"/>
+      <c r="I11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="39"/>
+      <c r="K11" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="N11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="39"/>
+      <c r="P11" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="38"/>
+      <c r="S11" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="39"/>
+      <c r="U11" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="V11" s="38"/>
+    </row>
+    <row r="12" spans="4:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="I4" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="42"/>
-      <c r="N4" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="O4" s="37"/>
-      <c r="P4" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" s="42"/>
-      <c r="S4" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="V4" s="42"/>
-    </row>
-    <row r="5" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D5" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="42"/>
-      <c r="I5" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" s="37"/>
-      <c r="K5" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="L5" s="42"/>
-      <c r="N5" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q5" s="42"/>
-      <c r="S5" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="V5" s="42"/>
-    </row>
-    <row r="6" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="37" t="s">
+      <c r="G12" s="38"/>
+      <c r="I12" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="38"/>
+      <c r="N12" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="39"/>
+      <c r="P12" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="38"/>
+      <c r="S12" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="T12" s="39"/>
+      <c r="U12" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="V12" s="38"/>
+    </row>
+    <row r="13" spans="4:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="I13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="41"/>
+      <c r="N13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="39"/>
+      <c r="P13" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="41"/>
+      <c r="S13" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="T13" s="39"/>
+      <c r="U13" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13" s="41"/>
+    </row>
+    <row r="14" spans="4:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="42"/>
-      <c r="I6" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" s="42"/>
-      <c r="N6" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6" s="42"/>
-      <c r="S6" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="V6" s="42"/>
-    </row>
-    <row r="7" spans="4:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="I7" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="39"/>
-      <c r="N7" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q7" s="39"/>
-      <c r="S7" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="V7" s="39"/>
-    </row>
-    <row r="8" spans="4:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="I8" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="L8" s="42"/>
-      <c r="N8" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" s="40"/>
-      <c r="P8" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q8" s="42"/>
-      <c r="S8" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="T8" s="40"/>
-      <c r="U8" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="V8" s="42"/>
-    </row>
-    <row r="10" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="I10" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="37"/>
-      <c r="K10" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="42"/>
-      <c r="N10" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="42"/>
-      <c r="S10" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="37"/>
-      <c r="U10" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="V10" s="42"/>
-    </row>
-    <row r="11" spans="4:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="42"/>
-      <c r="I11" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="37"/>
-      <c r="K11" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="42"/>
-      <c r="N11" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="42"/>
-      <c r="S11" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="T11" s="37"/>
-      <c r="U11" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="V11" s="42"/>
-    </row>
-    <row r="12" spans="4:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="I12" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="37"/>
-      <c r="K12" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="L12" s="42"/>
-      <c r="N12" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q12" s="42"/>
-      <c r="S12" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="T12" s="37"/>
-      <c r="U12" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="V12" s="42"/>
-    </row>
-    <row r="13" spans="4:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="39"/>
-      <c r="I13" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="L13" s="39"/>
-      <c r="N13" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="O13" s="37"/>
-      <c r="P13" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q13" s="39"/>
-      <c r="S13" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="T13" s="37"/>
-      <c r="U13" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="V13" s="39"/>
-    </row>
-    <row r="14" spans="4:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="I14" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="L14" s="42"/>
-      <c r="N14" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q14" s="42"/>
-      <c r="S14" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="T14" s="40"/>
-      <c r="U14" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="V14" s="42"/>
+      <c r="G14" s="38"/>
+      <c r="I14" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="38"/>
+      <c r="N14" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="42"/>
+      <c r="P14" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="38"/>
+      <c r="S14" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="T14" s="42"/>
+      <c r="U14" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="V14" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="S8:T8"/>
@@ -3610,22 +3672,55 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Projects Docs/Requirements V1.1 .xlsx
+++ b/Projects Docs/Requirements V1.1 .xlsx
@@ -99,9 +99,6 @@
     <t>REQ-201</t>
   </si>
   <si>
-    <t>Juliet Eldo and Saranya Suresh</t>
-  </si>
-  <si>
     <t>Sayli Deshmukh and Vivek Subramonian</t>
   </si>
   <si>
@@ -1241,6 +1238,9 @@
   </si>
   <si>
     <t>Bill of materials has been made. Hadware is set up and running.</t>
+  </si>
+  <si>
+    <t>Juliet Eldo, Saranya Suresh, Shubhaga Kannan</t>
   </si>
 </sst>
 </file>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="10"/>
@@ -2132,7 +2132,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="25">
         <v>44146</v>
@@ -2151,10 +2151,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="26">
         <v>44154</v>
@@ -2173,10 +2173,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="27">
         <v>44166</v>
@@ -2195,10 +2195,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="27">
         <v>44189</v>
@@ -2217,10 +2217,10 @@
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" s="30">
         <v>44198</v>
@@ -2239,10 +2239,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="26">
         <v>44207</v>
@@ -2261,10 +2261,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="30"/>
       <c r="F16" s="10"/>
@@ -2330,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2360,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>14</v>
@@ -2378,7 +2378,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K1" s="24" t="s">
         <v>19</v>
@@ -2392,28 +2392,28 @@
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>170</v>
+        <v>36</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="I2" s="18">
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>22</v>
@@ -2424,31 +2424,31 @@
         <v>24</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="F3" s="6">
         <v>5</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I3" s="6">
         <v>0</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>22</v>
@@ -2456,34 +2456,34 @@
     </row>
     <row r="4" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="F4" s="6">
         <v>5</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I4" s="19">
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>22</v>
@@ -2491,34 +2491,34 @@
     </row>
     <row r="5" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="F5" s="6">
         <v>5</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I5" s="19">
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>22</v>
@@ -2526,34 +2526,34 @@
     </row>
     <row r="6" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="F6" s="6">
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="19">
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>22</v>
@@ -2561,28 +2561,28 @@
     </row>
     <row r="7" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="F7" s="6">
         <v>5</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I7" s="19">
         <v>1</v>
@@ -2594,34 +2594,34 @@
     </row>
     <row r="8" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="D8" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="F8" s="6">
         <v>5</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" s="19">
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>22</v>
@@ -2629,34 +2629,34 @@
     </row>
     <row r="9" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="D9" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="F9" s="6">
         <v>5</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I9" s="19">
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>22</v>
@@ -2664,107 +2664,107 @@
     </row>
     <row r="10" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="F10" s="6">
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I10" s="19">
         <v>1</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="D11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6">
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="D12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="F12" s="6">
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,28 +2775,28 @@
         <v>21</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="6">
         <v>5</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I13" s="19">
         <v>0.7</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>22</v>
@@ -2804,28 +2804,28 @@
     </row>
     <row r="14" spans="1:11" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="6">
         <v>5</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I14" s="19">
         <v>0.7</v>
@@ -2837,28 +2837,28 @@
     </row>
     <row r="15" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>42</v>
-      </c>
       <c r="C15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="6">
         <v>3</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I15" s="19">
         <v>0.7</v>
@@ -2870,28 +2870,28 @@
     </row>
     <row r="16" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="D16" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="6">
         <v>5</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I16" s="19">
         <v>0.7</v>
@@ -2903,61 +2903,61 @@
     </row>
     <row r="17" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6">
         <v>1</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I17" s="6">
         <v>0</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="6">
         <v>4</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I18" s="19">
         <v>0.7</v>
@@ -2969,61 +2969,61 @@
     </row>
     <row r="19" spans="1:11" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="6">
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="6">
         <v>4</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I20" s="19">
         <v>1</v>
@@ -3035,239 +3035,239 @@
     </row>
     <row r="21" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="F21" s="6">
         <v>1</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I21" s="19">
         <v>0.7</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="C23" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="D23" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" s="6">
         <v>2</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="K23" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>55</v>
-      </c>
       <c r="C24" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="6">
         <v>5</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="19">
         <v>0.7</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F25" s="6">
         <v>5</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>61</v>
-      </c>
       <c r="C26" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" s="6">
         <v>5</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="C27" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="6">
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3292,7 +3292,7 @@
   <sheetData>
     <row r="2" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D2" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
@@ -3300,341 +3300,341 @@
     </row>
     <row r="4" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D4" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="38"/>
       <c r="I4" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J4" s="39"/>
       <c r="K4" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L4" s="38"/>
       <c r="N4" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O4" s="39"/>
       <c r="P4" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="38"/>
       <c r="S4" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T4" s="39"/>
       <c r="U4" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V4" s="38"/>
     </row>
     <row r="5" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D5" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="38"/>
       <c r="I5" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L5" s="38"/>
       <c r="N5" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O5" s="39"/>
       <c r="P5" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="38"/>
       <c r="S5" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T5" s="39"/>
       <c r="U5" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V5" s="38"/>
     </row>
     <row r="6" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D6" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="38"/>
       <c r="I6" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J6" s="39"/>
       <c r="K6" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L6" s="38"/>
       <c r="N6" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" s="39"/>
       <c r="P6" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q6" s="38"/>
       <c r="S6" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T6" s="39"/>
       <c r="U6" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V6" s="38"/>
     </row>
     <row r="7" spans="4:22" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="41"/>
       <c r="I7" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L7" s="41"/>
       <c r="N7" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="41"/>
       <c r="S7" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T7" s="39"/>
       <c r="U7" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V7" s="41"/>
     </row>
     <row r="8" spans="4:22" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="38"/>
       <c r="I8" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J8" s="42"/>
       <c r="K8" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L8" s="38"/>
       <c r="N8" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O8" s="42"/>
       <c r="P8" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q8" s="38"/>
       <c r="S8" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T8" s="42"/>
       <c r="U8" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V8" s="38"/>
     </row>
     <row r="10" spans="4:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D10" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="38"/>
       <c r="I10" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" s="39"/>
       <c r="K10" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L10" s="38"/>
       <c r="N10" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O10" s="39"/>
       <c r="P10" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="38"/>
       <c r="S10" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T10" s="39"/>
       <c r="U10" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V10" s="38"/>
     </row>
     <row r="11" spans="4:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="39"/>
       <c r="F11" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="38"/>
       <c r="I11" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L11" s="38"/>
       <c r="N11" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O11" s="39"/>
       <c r="P11" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="38"/>
       <c r="S11" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T11" s="39"/>
       <c r="U11" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="V11" s="38"/>
     </row>
     <row r="12" spans="4:22" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G12" s="38"/>
       <c r="I12" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L12" s="38"/>
       <c r="N12" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O12" s="39"/>
       <c r="P12" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q12" s="38"/>
       <c r="S12" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T12" s="39"/>
       <c r="U12" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V12" s="38"/>
     </row>
     <row r="13" spans="4:22" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G13" s="41"/>
       <c r="I13" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J13" s="39"/>
       <c r="K13" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L13" s="41"/>
       <c r="N13" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O13" s="39"/>
       <c r="P13" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="41"/>
       <c r="S13" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T13" s="39"/>
       <c r="U13" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="V13" s="41"/>
     </row>
     <row r="14" spans="4:22" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G14" s="38"/>
       <c r="I14" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J14" s="42"/>
       <c r="K14" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L14" s="38"/>
       <c r="N14" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O14" s="42"/>
       <c r="P14" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="38"/>
       <c r="S14" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T14" s="42"/>
       <c r="U14" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V14" s="38"/>
     </row>
